--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3184320.879752417</v>
+        <v>3259850.549417223</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>252.7643836076984</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>350.9227305516493</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888692</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.74576742341601</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>78.31629253725413</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>202.8504658884266</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>89.10871289303441</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903419</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>93.7612583694072</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,13 +1183,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.608692535667528</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>42.00944731476217</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.61417585544535</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>188.0945096485216</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>144.0409689064682</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>101.4950386130997</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385022</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.826459930114</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>161.170605930138</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>83.05382491234536</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273915</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>52.69525993589278</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>100.8589659155932</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>81.05306473437268</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>33.35146980185879</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>59.35411939564014</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3441,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>60.5104169322369</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>207.6313231366238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>172.237154009909</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,16 +3793,16 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>283.807348547457</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>81.17989247133679</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1138.210253911481</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1138.210253911481</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.210253911481</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2499.764283539865</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>2330.828100611958</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>2180.711461199623</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>2180.711461199623</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>2180.711461199623</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>649.021618007188</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452407</v>
+        <v>649.021618007188</v>
       </c>
       <c r="U4" t="n">
-        <v>2549.002432452407</v>
+        <v>649.021618007188</v>
       </c>
       <c r="V4" t="n">
-        <v>2549.002432452407</v>
+        <v>649.021618007188</v>
       </c>
       <c r="W4" t="n">
-        <v>2549.002432452407</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X4" t="n">
-        <v>2549.002432452407</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y4" t="n">
-        <v>2549.002432452407</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>1954.241103772297</v>
       </c>
       <c r="C5" t="n">
-        <v>1512.155724216995</v>
+        <v>1954.241103772297</v>
       </c>
       <c r="D5" t="n">
-        <v>1512.155724216995</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1126.36747161875</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>715.3815668291429</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>297.4177587273298</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4665,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1022.045772924</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.045772924</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1022.045772924</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>636.2575203257554</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>629.312019576552</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.645612988121</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477206</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>548.5954256477206</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>401.7054781498102</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>232.7056778881426</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>232.7056778881426</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>96.3767669867909</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4999,13 +5001,13 @@
         <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>645.5664328828389</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>417.5768819848215</v>
       </c>
     </row>
     <row r="11">
@@ -5018,52 +5020,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>592.8217113586342</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581964</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1197.846712929301</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>943.1622247234143</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>653.7450546864536</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>425.7555037884362</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>425.7555037884362</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,10 +5299,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5315,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>190.6805289025646</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>339.7502131046245</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>953.6472828615134</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.888341328817</v>
+        <v>199.737332483619</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>199.737332483619</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>199.737332483619</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>898.792518248837</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570741</v>
+        <v>898.792518248837</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570741</v>
+        <v>609.3753482118763</v>
       </c>
       <c r="X16" t="n">
-        <v>592.5368061590567</v>
+        <v>381.3857973138588</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.5368061590567</v>
+        <v>381.3857973138588</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.3487253058607</v>
+        <v>416.2699138005288</v>
       </c>
       <c r="C19" t="n">
-        <v>657.4125423779539</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D19" t="n">
-        <v>657.4125423779539</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>509.4994487955607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>509.4994487955607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1336.117678709277</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1336.117678709277</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1336.117678709277</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.130855347408</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X19" t="n">
-        <v>1047.141304449391</v>
+        <v>818.7109577742989</v>
       </c>
       <c r="Y19" t="n">
-        <v>826.3487253058607</v>
+        <v>597.9183786307686</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>994.310928893211</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>825.374745965304</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529681</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705749</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705749</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1215.103508036741</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1215.103508036741</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1215.103508036741</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1215.103508036741</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1215.103508036741</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>994.310928893211</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155874</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805454</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822446</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665166</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267566</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>875.3755893396592</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508786</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684854</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705749</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903953</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1044.311772267566</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>1044.311772267566</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>1044.311772267566</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267566</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>4030.503968058058</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3861.567785130151</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3711.451145717816</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3711.451145717816</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3711.451145717816</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3711.451145717816</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3561.033137265759</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>4432.945012031828</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>4212.152432888298</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>626.5134693825611</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>476.3968299702253</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6789,13 +6791,13 @@
         <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2292.946699347402</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2497.969180129611</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.9054447954967</v>
+        <v>4006.638562932012</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9054447954967</v>
+        <v>3837.702380004105</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9054447954967</v>
+        <v>3837.702380004105</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9054447954967</v>
+        <v>3837.702380004105</v>
       </c>
       <c r="F34" t="n">
-        <v>130.9054447954967</v>
+        <v>3837.702380004105</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3669.527058323925</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3519.109049871869</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954967</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954967</v>
+        <v>4409.079606905781</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9054447954967</v>
+        <v>4188.287027762251</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.5496456007323</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C37" t="n">
-        <v>710.6134626728254</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1214.009222082522</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y37" t="n">
-        <v>1061.198110430972</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>3887.539261805027</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3718.60307887712</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>4686.87764977196</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>4397.749010985518</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>4397.749010985518</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>4108.331840948557</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>4108.331840948557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>3887.539261805027</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,13 +7444,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7491,22 +7493,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.7003690904323</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C43" t="n">
-        <v>562.7003690904323</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.13096396222</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="X43" t="n">
-        <v>965.1414130642022</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.3488339206721</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451765</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>182.034074286794</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.49733361305155</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978191</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>159.0121003135244</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10437,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.86002301949857</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>20.63789864135472</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524670008</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>98.14284275005591</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>23.20585219215963</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>44.93892403346958</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>17.66710853326359</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>60.37695512825138</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.493736146044</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>95.92021308231972</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>9.56027954867875</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>65.38089791219649</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.1420986615188</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>51.06512606863184</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25363,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>225.7269354663404</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.95333021547094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>49.31040704848027</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>2.430003851120318</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>205.3431058652542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672199</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>645197.94856722</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="H2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
@@ -26347,13 +26349,13 @@
         <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007444</v>
+        <v>7916.731656007369</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007332</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007332</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007434</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007438</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007482</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
@@ -26454,10 +26456,10 @@
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007482</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
@@ -26482,16 +26484,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558415</v>
+        <v>-143384.5458558413</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587034</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="D6" t="n">
         <v>446583.3333587031</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559874</v>
+        <v>20133.85448559927</v>
       </c>
       <c r="F6" t="n">
+        <v>545293.8909624959</v>
+      </c>
+      <c r="G6" t="n">
+        <v>545293.8909624957</v>
+      </c>
+      <c r="H6" t="n">
         <v>545293.8909624952</v>
       </c>
-      <c r="G6" t="n">
-        <v>545293.8909624956</v>
-      </c>
-      <c r="H6" t="n">
-        <v>545293.890962495</v>
-      </c>
       <c r="I6" t="n">
-        <v>545293.8909624955</v>
+        <v>545293.8909624959</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699022</v>
+        <v>368870.6717699026</v>
       </c>
       <c r="K6" t="n">
-        <v>545293.8909624955</v>
+        <v>545293.8909624952</v>
       </c>
       <c r="L6" t="n">
         <v>545293.8909624954</v>
@@ -26555,13 +26557,13 @@
         <v>410492.8757286583</v>
       </c>
       <c r="N6" t="n">
-        <v>545293.8909624954</v>
+        <v>545293.8909624956</v>
       </c>
       <c r="O6" t="n">
-        <v>545293.8909624955</v>
+        <v>545293.8909624956</v>
       </c>
       <c r="P6" t="n">
-        <v>545293.8909624951</v>
+        <v>545293.890962495</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>101.9186580129846</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>35.31520810440429</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.0862127585213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>133.8292464127648</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>151.8325757322563</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>234.8140598713227</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>320.0229116513878</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>248.6154749726218</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.190511873774824</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>233.9088224811456</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29202,67 +29204,67 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-2.00041537343572e-15</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.496876696667944e-13</v>
       </c>
     </row>
     <row r="26">
@@ -31045,22 +31047,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
         <v>255.8615389119866</v>
@@ -31069,19 +31071,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31239,7 +31241,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>332.6095128747332</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>94.40751256795829</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958063</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655654</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187463</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556539</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206028</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187462</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>434.7644551367889</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556539</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187462</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>62.54807759626082</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>366.105515245049</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556538</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718746</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.8730558045727</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>464.3977765279026</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,25 +37861,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>227.7313135728794</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,16 +38107,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3252833.534525511</v>
+        <v>3257772.797374542</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42.02575271987157</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>161.5519252761221</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.3865903334049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>58.41971245821871</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>133.5065782393455</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.44734925172066</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>280.7548054343446</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>160.1659968642483</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>255.7771786356286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>8.715333384834691</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>26.54536586583518</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>131.0780187496733</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>13.44703421516824</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8722262355888</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>259.3061888821581</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>254.2348134633369</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>164.1005747232762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56516821878983</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>60.51808258596463</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>160.0006879278783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>907.090798542223</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>907.090798542223</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>521.3025459439787</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>110.3166411543711</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>96.393237092962</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.965328113049</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.965328113049</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.203542751141</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1949.14065540757</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.372000137456</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.906241876376</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.6939024587814</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>196.7577195308745</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406187</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587814</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587814</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587814</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587814</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587814</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587814</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587814</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.3942879925752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>699.3942879925752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3942879925752</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3942879925752</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3942879925752</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3942879925752</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3942879925752</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3942879925752</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3942879925752</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1012.500974424629</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>626.7127218263845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>215.7268170367769</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>62.74634887575303</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>671.8985641854752</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="14">
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5539,10 +5539,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1150.472889065629</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>895.7884008597424</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>895.7884008597424</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>895.7884008597424</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9958217162123</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5943,13 +5943,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,16 +6247,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1236.990827242591</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>982.3063390367042</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>692.8891689997437</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X28" t="n">
-        <v>464.8996181017263</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>654.768200770936</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>588.4743893200337</v>
       </c>
       <c r="D37" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>939.0590370781803</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>48.75396143226396</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>262.225813365323</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>272.7903181834091</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.9597539463485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>26.93116351641925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>32.28818487325407</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>122.4224236133148</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.2668119631475</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>88.09739043224772</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>87.77261239840718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,10 +25371,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>65.70896746115884</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.698480193</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="16">
@@ -26316,40 +26316,40 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="H2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="M2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.948567219</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672194</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,13 +26426,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26441,25 +26441,25 @@
         <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007539</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26496,16 +26496,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558417</v>
+        <v>-143384.5458558414</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587035</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587033</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="E6" t="n">
-        <v>19159.26322587738</v>
+        <v>20036.3953596269</v>
       </c>
       <c r="F6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="G6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="H6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.431836523</v>
       </c>
       <c r="I6" t="n">
-        <v>544319.2997027735</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="J6" t="n">
-        <v>367896.0805101807</v>
+        <v>368773.2126439302</v>
       </c>
       <c r="K6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="L6" t="n">
-        <v>544319.2997027738</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="M6" t="n">
-        <v>409518.2844689364</v>
+        <v>410395.4166026855</v>
       </c>
       <c r="N6" t="n">
-        <v>544319.2997027739</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="O6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="P6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365231</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>281.8970200444856</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.86378753284944</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>7.228882684807445</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>228.1032858783723</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6754007031936418</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>5.527068807633157</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>253.6181731565466</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>113.9539220428404</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>147.4555554569605</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>225.5922774579928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
